--- a/biology/Zoologie/Gephyromantis_rivicola/Gephyromantis_rivicola.xlsx
+++ b/biology/Zoologie/Gephyromantis_rivicola/Gephyromantis_rivicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gephyromantis rivicola est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gephyromantis rivicola est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre du niveau de la mer jusqu'à 700 m d'altitude du mont Marojejy jusqu'à la presqu'île de Masoala[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre du niveau de la mer jusqu'à 700 m d'altitude du mont Marojejy jusqu'à la presqu'île de Masoala,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 2 spécimens mâles observés lors de la description originale mesurent entre 22,5 mm et 24,3 mm de longueur standard et les 3 spécimens femelles observés lors de la description originale mesurent entre 23,8 mm et 24,3 mm de longueur standard[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 2 spécimens mâles observés lors de la description originale mesurent entre 22,5 mm et 24,3 mm de longueur standard et les 3 spécimens femelles observés lors de la description originale mesurent entre 23,8 mm et 24,3 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique rivicola vient du latin rivus, le ruisseau, et colus, séjourner, en référence a l'habitat de cette espèce en bordure des ruisseaux[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique rivicola vient du latin rivus, le ruisseau, et colus, séjourner, en référence a l'habitat de cette espèce en bordure des ruisseaux.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vences, Glaw &amp; Andreone, 1997 : Description of two new frogs of the genus Mantidactylus from Madagascar, with notes on Mantidactylus klemmeri (Guibé, 1974) and Mantidactylus webbi (Grandison, 1953) (Amphibia, Ranidae, Mantellinae). Alytes, vol. 14, p. 130-146 (texte intégral).</t>
         </is>
